--- a/operantanalysis/scripts/output.xlsx
+++ b/operantanalysis/scripts/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,6 +407,26 @@
           <t>Large Go Latency</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Small No Go Trials</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Large No Go Trials</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Successful Small No Go Trials</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Successful Large No Go Trials</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -421,22 +441,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.48</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.14</v>
+        <v>1.58</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -452,22 +484,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>4.18</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +527,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>1.06</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -514,22 +570,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="I5" t="n">
-        <v>4.98</v>
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -545,22 +613,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>1.16</v>
       </c>
       <c r="I6" t="n">
-        <v>1.44</v>
+        <v>3.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -576,22 +656,34 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>0.98</v>
+        <v>3.86</v>
       </c>
       <c r="I7" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -607,22 +699,34 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>4.02</v>
+        <v>1.82</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>2.14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -638,22 +742,34 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.88</v>
+        <v>1.18</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -669,22 +785,34 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.28</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.68</v>
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -700,22 +828,34 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>2.68</v>
+        <v>1.28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -731,22 +871,34 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="I12" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -762,22 +914,34 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>3.64</v>
+        <v>3.54</v>
       </c>
       <c r="I13" t="n">
-        <v>0.92</v>
+        <v>2.76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
